--- a/data/Italy.xlsx
+++ b/data/Italy.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\Documents\Python Scripts\Covid-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dangngochuy/Downloads/covid19-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611B278C-493F-41F3-87F6-8CD7DC263874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70FC6C-9ABA-CA4C-AE1B-94DE8F624F57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24510" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{098A7C1F-F60E-4C3B-AA5F-1014BFB462AF}"/>
+    <workbookView xWindow="12880" yWindow="2000" windowWidth="21600" windowHeight="11380" xr2:uid="{098A7C1F-F60E-4C3B-AA5F-1014BFB462AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -455,245 +449,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AFE55C-6662-40CE-8FC8-C4BD6F9AD9D8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C1" s="1">
         <v>43905</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>43904</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>43893</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>14649</v>
+      </c>
+      <c r="C2">
         <v>13272</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11685</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1520</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3522</v>
+      </c>
+      <c r="C3">
         <v>3093</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2644</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>420</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2473</v>
+      </c>
+      <c r="C4">
         <v>2170</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1937</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>307</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1242</v>
+      </c>
+      <c r="C5">
         <v>1133</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>899</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>61</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1516</v>
+      </c>
+      <c r="C6">
         <v>1111</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>873</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>56</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>866</v>
+      </c>
+      <c r="C7">
         <v>781</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>630</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>667</v>
+      </c>
+      <c r="C8">
         <v>559</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>463</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>523</v>
+      </c>
+      <c r="C9">
         <v>436</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>357</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>386</v>
+      </c>
+      <c r="C10">
         <v>347</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>301</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>13</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -701,45 +725,51 @@
         <v>378</v>
       </c>
       <c r="C11">
+        <v>378</v>
+      </c>
+      <c r="D11">
         <v>206</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12">
         <v>333</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>272</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -747,225 +777,255 @@
         <v>230</v>
       </c>
       <c r="C13">
+        <v>230</v>
+      </c>
+      <c r="D13">
         <v>166</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
+        <v>241</v>
+      </c>
+      <c r="C14">
         <v>204</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>173</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
+        <v>213</v>
+      </c>
+      <c r="C15">
         <v>188</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>156</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
+        <v>164</v>
+      </c>
+      <c r="C16">
         <v>143</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>107</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
+        <v>176</v>
+      </c>
+      <c r="C17">
         <v>137</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>112</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
+        <v>107</v>
+      </c>
+      <c r="C18">
         <v>77</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>47</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
+        <v>89</v>
+      </c>
+      <c r="C19">
         <v>68</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>60</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
         <v>57</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>13</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
         <v>14</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>10</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>91</v>
       </c>
     </row>
